--- a/Matrix of TCAT.xlsx
+++ b/Matrix of TCAT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingt\PycharmProjects\Network of TCAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64712A5-FF52-4655-B097-A808BA24166E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E435E1F-DEA6-411C-993B-246A9B5E0652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-435" windowWidth="29040" windowHeight="15720" xr2:uid="{E2F1E461-FD05-44AA-82F4-9BB2E653FDDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2F1E461-FD05-44AA-82F4-9BB2E653FDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -381,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8BE436-52AD-440C-BF71-61EFCC7B5C97}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -420,8 +421,23 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -435,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -452,8 +468,23 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -484,8 +515,23 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -516,8 +562,23 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -548,8 +609,23 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -580,8 +656,23 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -612,8 +703,23 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -644,8 +750,23 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -676,8 +797,23 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -706,6 +842,356 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1A1485-68F5-4BC3-9099-D0539FA1AB6B}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
